--- a/result.xlsx
+++ b/result.xlsx
@@ -1,161 +1,109 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warda.kashif\PycharmProjects\Openpyxl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C7836-DF56-456F-B45E-7A0446ABA032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="22" activeTab="30" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="22" activeTab="30" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet329" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet328" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet327" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet326" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet325" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet324" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet323" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet322" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet321" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet320" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet319" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet318" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet317" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet316" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet315" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet314" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet313" sheetId="17" r:id="rId17"/>
-    <sheet name="Sheet312" sheetId="18" r:id="rId18"/>
-    <sheet name="Sheet311" sheetId="19" r:id="rId19"/>
-    <sheet name="Sheet310" sheetId="20" r:id="rId20"/>
-    <sheet name="Sheet39" sheetId="21" r:id="rId21"/>
-    <sheet name="Sheet38" sheetId="22" r:id="rId22"/>
-    <sheet name="Sheet37" sheetId="23" r:id="rId23"/>
-    <sheet name="Sheet36" sheetId="24" r:id="rId24"/>
-    <sheet name="Sheet35" sheetId="25" r:id="rId25"/>
-    <sheet name="Sheet34" sheetId="26" r:id="rId26"/>
-    <sheet name="Sheet33" sheetId="27" r:id="rId27"/>
-    <sheet name="Sheet32" sheetId="28" r:id="rId28"/>
-    <sheet name="Sheet31" sheetId="29" r:id="rId29"/>
-    <sheet name="Sheet3" sheetId="30" r:id="rId30"/>
-    <sheet name="Sheet1" sheetId="31" r:id="rId31"/>
-    <sheet name="Sheet2" sheetId="32" r:id="rId32"/>
-    <sheet name="Sheet21" sheetId="33" r:id="rId33"/>
-    <sheet name="Sheet22" sheetId="34" r:id="rId34"/>
-    <sheet name="Sheet23" sheetId="35" r:id="rId35"/>
+    <sheet name="Sheet329" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet328" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet327" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet326" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Sheet325" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Sheet324" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Sheet323" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Sheet322" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Sheet321" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Sheet320" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="Sheet319" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="Sheet318" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="Sheet317" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="Sheet316" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="Sheet315" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="Sheet314" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="Sheet313" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="Sheet312" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="Sheet311" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="Sheet310" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="Sheet39" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="Sheet38" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="Sheet37" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="Sheet36" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="Sheet35" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="Sheet34" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="Sheet33" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="Sheet32" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="Sheet31" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="Sheet3" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="Sheet1" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="Sheet2" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="Sheet21" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="Sheet22" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="Sheet23" sheetId="35" state="visible" r:id="rId35"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
-  <si>
-    <t>STUDENTID</t>
-  </si>
-  <si>
-    <t>Studentname</t>
-  </si>
-  <si>
-    <t>Marks</t>
-  </si>
-  <si>
-    <t>courseId</t>
-  </si>
-  <si>
-    <t>courseName</t>
-  </si>
-  <si>
-    <t>courseDescription</t>
-  </si>
-  <si>
-    <t>Percentage</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>wardha</t>
-  </si>
-  <si>
-    <t>Distributed Programming</t>
-  </si>
-  <si>
-    <t>This course is related to programming</t>
-  </si>
-  <si>
-    <t>adnan</t>
-  </si>
-  <si>
-    <t>Kashif</t>
-  </si>
-  <si>
-    <t>networking</t>
-  </si>
-  <si>
-    <t>This course is related to Networking</t>
-  </si>
-  <si>
-    <t>Amir</t>
-  </si>
-  <si>
-    <t>Databases</t>
-  </si>
-  <si>
-    <t>This course is related to Databases</t>
-  </si>
-  <si>
-    <t>DSA</t>
-  </si>
-  <si>
-    <t>This course is related to DSA</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="6">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <i/>
+      <name val="Chalkboard"/>
+      <i val="1"/>
+      <color rgb="FF1A4FDF"/>
       <sz val="24"/>
-      <color rgb="FF1A4FDF"/>
-      <name val="Chalkboard"/>
     </font>
     <font>
-      <strike/>
-      <u/>
+      <name val="Chalkboard"/>
+      <strike val="1"/>
+      <color rgb="FF1A4FDF"/>
       <sz val="12"/>
-      <color rgb="FF1A4FDF"/>
+      <u val="single"/>
+    </font>
+    <font>
       <name val="Chalkboard"/>
+      <i val="1"/>
+      <color rgb="001A4FDF"/>
+      <sz val="24"/>
+    </font>
+    <font>
+      <name val="Chalkboard"/>
+      <strike val="1"/>
+      <color rgb="001A4FDF"/>
+      <sz val="12"/>
+      <u val="single"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="001A4FDF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -178,31 +126,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="dashed">
+        <color rgb="001A4FDF"/>
+      </top>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -490,89 +507,129 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="C5:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="5" spans="3:3">
-      <c r="C5">
+    <row r="5">
+      <c r="C5" t="n">
         <v>67</v>
       </c>
     </row>
@@ -582,378 +639,536 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1900-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1A00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1B00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1C00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
-  <dimension ref="A1:H6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col width="15.42578125" customWidth="1" min="1" max="1"/>
+    <col width="16.85546875" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>STUDENTID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Studentname</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Marks</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>courseId</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>courseName</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>courseDescription</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Percentage</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15.75" customHeight="1">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>wardha</t>
+        </is>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>45</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Distributed Programming</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>This course is related to programming</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>45</v>
+      </c>
+      <c r="H2" t="n">
+        <v>90</v>
+      </c>
+      <c r="I2">
+        <f>SUM(H2:H3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>adnan</t>
+        </is>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>90</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Distributed Programming</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>This course is related to programming</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>90</v>
+      </c>
+      <c r="H3" t="n">
+        <v>180</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(H2:H3)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" ht="30.75" customHeight="1">
+      <c r="A4" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Kashif</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="n">
+        <v>85</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8" t="inlineStr">
+        <is>
+          <t>networking</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>This course is related to Networking</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>85</v>
+      </c>
+      <c r="H4" t="n">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" t="n">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Amir</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Databases</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>This course is related to Databases</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>67</v>
+      </c>
+      <c r="H5" t="n">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" t="n">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3">
-        <v>45</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2">
-        <v>45</v>
-      </c>
-      <c r="H2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75">
-      <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3">
-        <v>90</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3">
-        <v>90</v>
-      </c>
-      <c r="H3">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30.75">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3">
-        <v>85</v>
-      </c>
-      <c r="D4">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4">
-        <v>85</v>
-      </c>
-      <c r="H4">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="3">
-        <v>67</v>
-      </c>
-      <c r="D5">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5">
-        <v>67</v>
-      </c>
-      <c r="H5">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75">
-      <c r="A6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Kashif</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>88</v>
+      </c>
+      <c r="D6" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="E6" s="7" t="inlineStr">
+        <is>
+          <t>DSA</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>This course is related to DSA</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>88</v>
       </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>88</v>
-      </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>176</v>
       </c>
     </row>
@@ -963,120 +1178,180 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1F00-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2000-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
